--- a/CFF Data Dictionary.xlsx
+++ b/CFF Data Dictionary.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA84B99D-7FC4-4CB3-85CE-8317F08B2121}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF144BC-B4F4-4113-81F1-6CAA69A74956}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
   <si>
     <t>Data Dictionary for Computing For Free</t>
   </si>
@@ -97,15 +97,6 @@
     <t>staffID</t>
   </si>
   <si>
-    <t>staffFirstName</t>
-  </si>
-  <si>
-    <t>staffLastName</t>
-  </si>
-  <si>
-    <t>staffRole</t>
-  </si>
-  <si>
     <t>studentID</t>
   </si>
   <si>
@@ -206,12 +197,6 @@
   </si>
   <si>
     <t>Identifier for course</t>
-  </si>
-  <si>
-    <t>Identifier for staff</t>
-  </si>
-  <si>
-    <t>Describe the role of the staff</t>
   </si>
   <si>
     <t>Identifier for student</t>
@@ -658,13 +643,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -750,7 +735,7 @@
         <v>13</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -803,15 +788,15 @@
         <v>10</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>17</v>
@@ -823,12 +808,12 @@
         <v>13</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>12</v>
@@ -839,7 +824,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>12</v>
@@ -848,314 +833,329 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="7" t="s">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="6">
+      <c r="D15" s="6">
+        <v>2</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D16" s="6">
-        <v>8</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D17" s="6">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
       <c r="B18" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="6">
-        <v>20</v>
+        <v>10</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="B20" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="6">
-        <v>2</v>
-      </c>
-      <c r="E20" s="8" t="s">
-        <v>13</v>
+        <v>34</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B21" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="6">
-        <v>10</v>
-      </c>
-      <c r="E23" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="6">
+        <v>7</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="H23" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="6">
-        <v>2</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>60</v>
+      <c r="H24" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B25" s="9" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>37</v>
+        <v>17</v>
+      </c>
+      <c r="D25" s="6">
+        <v>8</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>9</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B26" s="9" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="D26" s="6">
+        <v>7</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>16</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="9" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C27" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="6">
+        <v>8</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="C28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B29" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="6">
-        <v>7</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="9" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="C30" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="6">
+        <v>6</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H32" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="6">
-        <v>8</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D33" s="6">
+        <v>7</v>
+      </c>
+      <c r="E33" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F30" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B31" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="6">
-        <v>7</v>
-      </c>
-      <c r="E31" s="8" t="s">
+      <c r="F33" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D34" s="6">
+        <v>10</v>
+      </c>
+      <c r="E34" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F31" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G31" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B32" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="6">
-        <v>8</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>37</v>
+      <c r="F34" s="6" t="s">
+        <v>31</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B35" s="9" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>46</v>
+        <v>34</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B36" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D37" s="6">
-        <v>6</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>50</v>
+      <c r="C36" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="H36" s="6" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="B38" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C38" s="7" t="s">
         <v>17</v>
@@ -1164,18 +1164,21 @@
         <v>7</v>
       </c>
       <c r="E38" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="H38" s="6" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B39" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C39" s="7" t="s">
         <v>12</v>
@@ -1184,118 +1187,44 @@
         <v>10</v>
       </c>
       <c r="E39" s="8" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="H39" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>37</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B41" s="9" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A43" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="6">
-        <v>7</v>
-      </c>
-      <c r="E43" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F43" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="G43" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B44" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C44" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D44" s="6">
-        <v>10</v>
-      </c>
-      <c r="E44" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="G44" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B45" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B46" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G46" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/CFF Data Dictionary.xlsx
+++ b/CFF Data Dictionary.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF144BC-B4F4-4113-81F1-6CAA69A74956}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001ABC8C-039A-406C-83AE-5C843A55EE92}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9756" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="73">
   <si>
     <t>Data Dictionary for Computing For Free</t>
   </si>
@@ -89,12 +89,6 @@
   </si>
   <si>
     <t>FK</t>
-  </si>
-  <si>
-    <t>Staff</t>
-  </si>
-  <si>
-    <t>staffID</t>
   </si>
   <si>
     <t>studentID</t>
@@ -299,12 +293,18 @@
       <charset val="177"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -319,7 +319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -330,9 +330,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -348,20 +345,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -643,36 +658,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.88671875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.33203125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="10.109375" style="7" customWidth="1"/>
-    <col min="4" max="4" width="7" style="6" customWidth="1"/>
-    <col min="5" max="5" width="10.109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="20.109375" style="6" customWidth="1"/>
-    <col min="8" max="8" width="34.44140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="6"/>
+    <col min="1" max="1" width="11.88671875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="6" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="10.21875" style="7" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.109375" style="5" customWidth="1"/>
+    <col min="8" max="8" width="34.44140625" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:8" s="4" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" s="14" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
@@ -699,532 +714,536 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <v>20</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>7</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="5">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="5">
+        <v>20</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="E10" s="19"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="5">
+        <v>2</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H15" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="7" t="s">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D16" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="5">
+        <v>10</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="17"/>
+      <c r="E23" s="19"/>
+    </row>
+    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="5">
+        <v>7</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="5">
+        <v>8</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B26" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="5">
+        <v>7</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="C29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="15"/>
+      <c r="B30" s="16"/>
+      <c r="C30" s="17"/>
+      <c r="E30" s="19"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="5">
+        <v>6</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B32" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="5">
+        <v>7</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B33" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="6">
-        <v>20</v>
-      </c>
-      <c r="E9" s="8" t="s">
+      <c r="D33" s="5">
+        <v>10</v>
+      </c>
+      <c r="E33" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F33" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B35" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C35" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15"/>
+      <c r="B36" s="16"/>
+      <c r="C36" s="17"/>
+      <c r="E36" s="19"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="5">
+        <v>7</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D38" s="5">
         <v>10</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6">
-        <v>8</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15" s="9" t="s">
+      <c r="E38" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F38" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D15" s="6">
-        <v>2</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="6">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="6">
-        <v>10</v>
-      </c>
-      <c r="E18" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="6">
-        <v>2</v>
-      </c>
-      <c r="E19" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="6" t="s">
+      <c r="G38" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="9" t="s">
+      <c r="H39" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B40" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C40" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="6">
-        <v>7</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="6">
-        <v>8</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G25" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="6">
-        <v>7</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B27" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="6">
-        <v>8</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B29" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G29" s="6" t="s">
+      <c r="G40" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="H29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B30" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="H30" s="6" t="s">
+      <c r="H40" s="5" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="6">
-        <v>6</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="6">
-        <v>7</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G33" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="6">
-        <v>10</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G34" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C35" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G36" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="B38" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="6">
-        <v>7</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G38" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C39" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="6">
-        <v>10</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G39" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B40" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B41" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="G41" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
